--- a/raw-data/farmhub_raw_2024.xlsx
+++ b/raw-data/farmhub_raw_2024.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F65AC-E245-AF4C-82E4-80E6ECC55D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A5FBE-68A9-6948-8A36-36CB2913E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="-28300" windowWidth="34180" windowHeight="27160" xr2:uid="{8D32C7FD-A6DD-4549-A10B-2A17D291F932}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{8D32C7FD-A6DD-4549-A10B-2A17D291F932}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -213,6 +217,15 @@
   </si>
   <si>
     <t>FH_B1_P404_SW</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of bean_yield</t>
   </si>
 </sst>
 </file>
@@ -307,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,6 +335,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,6 +358,750 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eric Youngerman" refreshedDate="45712.851221527781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{93B6BC42-8BDB-8544-A334-A424EBD6033E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N37" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2024" maxValue="2024"/>
+    </cacheField>
+    <cacheField name="location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="4">
+        <s v="EWC"/>
+        <s v="LWC"/>
+        <s v="AWC"/>
+        <s v="NWC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="block" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="plot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="404"/>
+    </cacheField>
+    <cacheField name="microplot" numFmtId="0">
+      <sharedItems count="3">
+        <s v="M"/>
+        <s v="SW"/>
+        <s v="WF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="bean_emergence" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="35"/>
+    </cacheField>
+    <cacheField name="bean_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="71.56" maxValue="296.02"/>
+    </cacheField>
+    <cacheField name="intrarow_weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="106.53"/>
+    </cacheField>
+    <cacheField name="interrow_weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="180.1"/>
+    </cacheField>
+    <cacheField name="weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="213.06"/>
+    </cacheField>
+    <cacheField name="bean_population" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16" maxValue="31"/>
+    </cacheField>
+    <cacheField name="bean_yield" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="73.44" maxValue="363.11"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
+  <r>
+    <s v="FH_B1_P101"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="101"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="120.37"/>
+    <n v="10.08"/>
+    <n v="68.430000000000007"/>
+    <n v="78.510000000000005"/>
+    <n v="18"/>
+    <n v="139.85"/>
+  </r>
+  <r>
+    <s v="FH_B1_P101_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="101"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="104.44"/>
+    <n v="20.56"/>
+    <n v="89.6"/>
+    <n v="110.16"/>
+    <n v="21"/>
+    <n v="153.24"/>
+  </r>
+  <r>
+    <s v="FH_B1_P102"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <x v="0"/>
+    <n v="31"/>
+    <n v="193.2"/>
+    <n v="0"/>
+    <n v="10.130000000000001"/>
+    <n v="10.130000000000001"/>
+    <n v="23"/>
+    <n v="192.95"/>
+  </r>
+  <r>
+    <s v="FH_B1_P102_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="75.42"/>
+    <n v="5.49"/>
+    <n v="58.71"/>
+    <n v="64.2"/>
+    <n v="24"/>
+    <n v="217.43"/>
+  </r>
+  <r>
+    <s v="FH_B1_P103"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="103"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="185.88"/>
+    <n v="0.05"/>
+    <n v="14.08"/>
+    <n v="14.13"/>
+    <n v="21"/>
+    <n v="276.42"/>
+  </r>
+  <r>
+    <s v="FH_B1_P103_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="103"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="85.61"/>
+    <n v="41.91"/>
+    <n v="38.229999999999997"/>
+    <n v="80.139999999999986"/>
+    <n v="26"/>
+    <n v="185.72"/>
+  </r>
+  <r>
+    <s v="FH_B1_P104"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="123.99"/>
+    <n v="38.58"/>
+    <n v="135.05000000000001"/>
+    <n v="173.63"/>
+    <n v="17"/>
+    <n v="73.44"/>
+  </r>
+  <r>
+    <s v="FH_B1_P104_WF"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <x v="2"/>
+    <n v="25"/>
+    <n v="263.55"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="343.18"/>
+  </r>
+  <r>
+    <s v="FH_B1_P104_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <x v="1"/>
+    <n v="27"/>
+    <n v="80.31"/>
+    <n v="9.09"/>
+    <n v="130.19999999999999"/>
+    <n v="139.29"/>
+    <n v="20.5"/>
+    <n v="157.38999999999999"/>
+  </r>
+  <r>
+    <s v="FH_B1_P201"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="201"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="179"/>
+    <n v="0"/>
+    <n v="1.8"/>
+    <n v="1.8"/>
+    <n v="25"/>
+    <n v="216.82"/>
+  </r>
+  <r>
+    <s v="FH_B1_P201_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="201"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="108.09"/>
+    <n v="42.64"/>
+    <n v="12.16"/>
+    <n v="54.8"/>
+    <n v="23"/>
+    <n v="194.05"/>
+  </r>
+  <r>
+    <s v="FH_B1_P202"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="105.23"/>
+    <n v="11.11"/>
+    <n v="60"/>
+    <n v="71.11"/>
+    <n v="16"/>
+    <n v="215.58"/>
+  </r>
+  <r>
+    <s v="FH_B1_P202_WF"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="242.35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="331.85"/>
+  </r>
+  <r>
+    <s v="FH_B1_P202_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="96.1"/>
+    <n v="106.53"/>
+    <n v="106.53"/>
+    <n v="213.06"/>
+    <n v="21"/>
+    <n v="137.69999999999999"/>
+  </r>
+  <r>
+    <s v="FH_B1_P203"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="203"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="122.56"/>
+    <n v="20.92"/>
+    <n v="119.51"/>
+    <n v="140.43"/>
+    <n v="21"/>
+    <n v="215.31"/>
+  </r>
+  <r>
+    <s v="FH_B1_P203_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="203"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="103.03"/>
+    <n v="31.09"/>
+    <n v="88.9"/>
+    <n v="119.99000000000001"/>
+    <n v="28"/>
+    <n v="210.98"/>
+  </r>
+  <r>
+    <s v="FH_B1_P204"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="204"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="130.06"/>
+    <n v="0"/>
+    <n v="14.31"/>
+    <n v="14.31"/>
+    <n v="24"/>
+    <n v="249.07"/>
+  </r>
+  <r>
+    <s v="FH_B1_P204_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="204"/>
+    <x v="1"/>
+    <n v="26"/>
+    <n v="103.73"/>
+    <n v="56.24"/>
+    <n v="2.2200000000000002"/>
+    <n v="58.46"/>
+    <n v="20"/>
+    <n v="155.41999999999999"/>
+  </r>
+  <r>
+    <s v="FH_B1_P301"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="301"/>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="186.51"/>
+    <n v="0"/>
+    <n v="180.1"/>
+    <n v="180.1"/>
+    <n v="17"/>
+    <n v="292.85000000000002"/>
+  </r>
+  <r>
+    <s v="FH_B1_P301_WF"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="301"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="295.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="31"/>
+    <n v="297.42"/>
+  </r>
+  <r>
+    <s v="FH_B1_P301_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="301"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="122.54"/>
+    <n v="18.670000000000002"/>
+    <n v="99.54"/>
+    <n v="118.21000000000001"/>
+    <n v="20"/>
+    <n v="156.55000000000001"/>
+  </r>
+  <r>
+    <s v="FH_B1_P302"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="302"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="130.38999999999999"/>
+    <n v="0"/>
+    <n v="52.65"/>
+    <n v="52.65"/>
+    <n v="27"/>
+    <n v="363.11"/>
+  </r>
+  <r>
+    <s v="FH_B1_P302_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="302"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="134.19999999999999"/>
+    <n v="3.76"/>
+    <n v="94.85"/>
+    <n v="98.61"/>
+    <n v="26"/>
+    <n v="223.24"/>
+  </r>
+  <r>
+    <s v="FH_B1_P303"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="303"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="160.47"/>
+    <n v="13.44"/>
+    <n v="0"/>
+    <n v="13.44"/>
+    <n v="19"/>
+    <n v="167.47"/>
+  </r>
+  <r>
+    <s v="FH_B1_P303_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="303"/>
+    <x v="1"/>
+    <n v="35"/>
+    <n v="89.71"/>
+    <n v="34.67"/>
+    <n v="33.43"/>
+    <n v="68.099999999999994"/>
+    <n v="19"/>
+    <n v="114.42"/>
+  </r>
+  <r>
+    <s v="FH_B1_P304"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="304"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="219.83"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="0.05"/>
+    <n v="24"/>
+    <n v="260.26"/>
+  </r>
+  <r>
+    <s v="FH_B1_P304_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="304"/>
+    <x v="1"/>
+    <n v="26"/>
+    <n v="71.56"/>
+    <n v="36.39"/>
+    <n v="33.03"/>
+    <n v="69.42"/>
+    <n v="21"/>
+    <n v="148.22999999999999"/>
+  </r>
+  <r>
+    <s v="FH_B1_P401"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="401"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="154.22999999999999"/>
+    <n v="16.09"/>
+    <n v="34.47"/>
+    <n v="50.56"/>
+    <n v="24"/>
+    <n v="328.71"/>
+  </r>
+  <r>
+    <s v="FH_B1_P401_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="401"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="197.69"/>
+    <n v="26.45"/>
+    <n v="0"/>
+    <n v="26.45"/>
+    <n v="28"/>
+    <n v="269.58"/>
+  </r>
+  <r>
+    <s v="FH_B1_P402"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="402"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="152.5"/>
+    <n v="0"/>
+    <n v="5.46"/>
+    <n v="5.46"/>
+    <n v="20"/>
+    <n v="259.56"/>
+  </r>
+  <r>
+    <s v="FH_B1_P402_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="402"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="160.32"/>
+    <n v="4.8899999999999997"/>
+    <n v="18.75"/>
+    <n v="23.64"/>
+    <n v="17"/>
+    <n v="171.35"/>
+  </r>
+  <r>
+    <s v="FH_B1_P403"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="403"/>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="185.37"/>
+    <n v="0"/>
+    <n v="95.34"/>
+    <n v="95.34"/>
+    <n v="24"/>
+    <n v="242.45"/>
+  </r>
+  <r>
+    <s v="FHU_B1_P403_WF"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="403"/>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="296.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="342.65"/>
+  </r>
+  <r>
+    <s v="FH_B1_P403_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="403"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="119.05"/>
+    <n v="11.54"/>
+    <n v="121.29"/>
+    <n v="132.83000000000001"/>
+    <n v="20"/>
+    <n v="183.22"/>
+  </r>
+  <r>
+    <s v="FH_B1_P404"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="404"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="194.11"/>
+    <n v="0"/>
+    <n v="45.72"/>
+    <n v="45.72"/>
+    <n v="24"/>
+    <n v="277"/>
+  </r>
+  <r>
+    <s v="FH_B1_P404_SW"/>
+    <n v="2024"/>
+    <s v="FH"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="404"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="113.73"/>
+    <n v="10.220000000000001"/>
+    <n v="107.43"/>
+    <n v="117.65"/>
+    <n v="20"/>
+    <n v="148.88999999999999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D062E2FB-4D69-5643-9399-D4EC3B730D33}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of bean_yield" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,11 +1420,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67BCCDA-2EAA-FE45-9987-04DE08192F61}">
+  <dimension ref="A3:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3770.8499999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1013.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>995.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="13">
+        <v>938.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13">
+        <v>824.31999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2827.4100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13">
+        <v>699.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13">
+        <v>736.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13">
+        <v>756.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13">
+        <v>634.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1315.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1315.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="13">
+        <v>7913.3600000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE32F2D-732D-964D-9CC4-82DEF7FC882F}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw-data/farmhub_raw_2024.xlsx
+++ b/raw-data/farmhub_raw_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A5FBE-68A9-6948-8A36-36CB2913E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D6D79-2562-7B49-A7B8-396B89B99791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{8D32C7FD-A6DD-4549-A10B-2A17D291F932}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,16 +247,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -334,7 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,7 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1013,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D062E2FB-4D69-5643-9399-D4EC3B730D33}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D062E2FB-4D69-5643-9399-D4EC3B730D33}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1434,7 +1439,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B3" t="s">
@@ -1442,106 +1447,106 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>3770.8499999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>1013.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>995.27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>938.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>824.31999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>2827.4100000000003</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>699.35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>736.35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>756.85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>634.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>1315.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>1315.1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>7913.3600000000006</v>
       </c>
     </row>
@@ -1555,7 +1560,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1656,7 @@
       <c r="I2" s="7">
         <v>120.37</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="12">
         <v>10.08</v>
       </c>
       <c r="K2">
@@ -1666,7 +1671,7 @@
       <c r="N2" s="7">
         <v>139.85</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1696,7 +1701,7 @@
       <c r="I3">
         <v>104.44</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="12">
         <v>20.56</v>
       </c>
       <c r="K3" s="7">
@@ -1711,7 +1716,7 @@
       <c r="N3" s="7">
         <v>153.24</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1741,7 +1746,7 @@
       <c r="I4">
         <v>193.2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="12">
         <v>0</v>
       </c>
       <c r="K4">
@@ -1756,7 +1761,7 @@
       <c r="N4" s="7">
         <v>192.95</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -1786,7 +1791,7 @@
       <c r="I5">
         <v>75.42</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="12">
         <v>5.49</v>
       </c>
       <c r="K5">
@@ -1801,7 +1806,7 @@
       <c r="N5" s="7">
         <v>217.43</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -1831,7 +1836,7 @@
       <c r="I6">
         <v>185.88</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="12">
         <v>0.05</v>
       </c>
       <c r="K6">
@@ -1846,7 +1851,7 @@
       <c r="N6" s="7">
         <v>276.42</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1876,14 +1881,14 @@
       <c r="I7">
         <v>85.61</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="12">
         <v>41.91</v>
       </c>
       <c r="K7">
         <v>38.229999999999997</v>
       </c>
       <c r="L7" s="7">
-        <v>80.139999999999986</v>
+        <v>80.14</v>
       </c>
       <c r="M7">
         <v>26</v>
@@ -1891,7 +1896,7 @@
       <c r="N7" s="7">
         <v>185.72</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1921,7 +1926,7 @@
       <c r="I8" s="7">
         <v>123.99</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="12">
         <v>38.58</v>
       </c>
       <c r="K8">
@@ -1936,7 +1941,7 @@
       <c r="N8" s="7">
         <v>73.44</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1966,7 +1971,7 @@
       <c r="I9">
         <v>263.55</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="12">
         <v>0</v>
       </c>
       <c r="K9" s="7">
@@ -1981,7 +1986,7 @@
       <c r="N9">
         <v>343.18</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2011,7 +2016,7 @@
       <c r="I10">
         <v>80.31</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="12">
         <v>9.09</v>
       </c>
       <c r="K10">
@@ -2026,7 +2031,7 @@
       <c r="N10" s="7">
         <v>157.38999999999999</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -2056,7 +2061,7 @@
       <c r="I11">
         <v>179</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="12">
         <v>0</v>
       </c>
       <c r="K11">
@@ -2071,7 +2076,7 @@
       <c r="N11" s="7">
         <v>216.82</v>
       </c>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2101,7 +2106,7 @@
       <c r="I12">
         <v>108.09</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="12">
         <v>42.64</v>
       </c>
       <c r="K12">
@@ -2116,7 +2121,7 @@
       <c r="N12" s="7">
         <v>194.05</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -2146,7 +2151,7 @@
       <c r="I13">
         <v>105.23</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="12">
         <v>11.11</v>
       </c>
       <c r="K13">
@@ -2161,7 +2166,7 @@
       <c r="N13" s="7">
         <v>215.58</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -2191,7 +2196,7 @@
       <c r="I14">
         <v>242.35</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="12">
         <v>0</v>
       </c>
       <c r="K14" s="7">
@@ -2206,7 +2211,7 @@
       <c r="N14" s="7">
         <v>331.85</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -2236,14 +2241,14 @@
       <c r="I15">
         <v>96.1</v>
       </c>
-      <c r="J15" s="8">
-        <v>106.53</v>
+      <c r="J15" s="13">
+        <v>21.22</v>
       </c>
       <c r="K15">
         <v>106.53</v>
       </c>
       <c r="L15" s="7">
-        <v>213.06</v>
+        <v>127.75</v>
       </c>
       <c r="M15">
         <v>21</v>
@@ -2251,7 +2256,7 @@
       <c r="N15" s="7">
         <v>137.69999999999999</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -2281,7 +2286,7 @@
       <c r="I16">
         <v>122.56</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="12">
         <v>20.92</v>
       </c>
       <c r="K16">
@@ -2296,7 +2301,7 @@
       <c r="N16" s="7">
         <v>215.31</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -2326,14 +2331,14 @@
       <c r="I17">
         <v>103.03</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>31.09</v>
       </c>
       <c r="K17">
         <v>88.9</v>
       </c>
       <c r="L17" s="7">
-        <v>119.99000000000001</v>
+        <v>119.99</v>
       </c>
       <c r="M17">
         <v>28</v>
@@ -2341,7 +2346,7 @@
       <c r="N17" s="7">
         <v>210.98</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
@@ -2371,7 +2376,7 @@
       <c r="I18">
         <v>130.06</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="12">
         <v>0</v>
       </c>
       <c r="K18">
@@ -2386,7 +2391,7 @@
       <c r="N18" s="7">
         <v>249.07</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
@@ -2416,7 +2421,7 @@
       <c r="I19">
         <v>103.73</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="12">
         <v>56.24</v>
       </c>
       <c r="K19">
@@ -2431,7 +2436,7 @@
       <c r="N19" s="7">
         <v>155.41999999999999</v>
       </c>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -2461,7 +2466,7 @@
       <c r="I20">
         <v>186.51</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="12">
         <v>0</v>
       </c>
       <c r="K20">
@@ -2476,7 +2481,7 @@
       <c r="N20" s="7">
         <v>292.85000000000002</v>
       </c>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -2506,7 +2511,7 @@
       <c r="I21" s="7">
         <v>295.02</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="12">
         <v>0</v>
       </c>
       <c r="K21" s="7">
@@ -2521,7 +2526,7 @@
       <c r="N21" s="7">
         <v>297.42</v>
       </c>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -2551,14 +2556,14 @@
       <c r="I22" s="7">
         <v>122.54</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="12">
         <v>18.670000000000002</v>
       </c>
       <c r="K22">
         <v>99.54</v>
       </c>
       <c r="L22" s="7">
-        <v>118.21000000000001</v>
+        <v>118.21</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -2566,7 +2571,7 @@
       <c r="N22" s="7">
         <v>156.55000000000001</v>
       </c>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
@@ -2596,7 +2601,7 @@
       <c r="I23">
         <v>130.38999999999999</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="12">
         <v>0</v>
       </c>
       <c r="K23">
@@ -2611,7 +2616,7 @@
       <c r="N23" s="7">
         <v>363.11</v>
       </c>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -2641,7 +2646,7 @@
       <c r="I24">
         <v>134.19999999999999</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="12">
         <v>3.76</v>
       </c>
       <c r="K24">
@@ -2656,7 +2661,7 @@
       <c r="N24" s="7">
         <v>223.24</v>
       </c>
-      <c r="Q24" s="9"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -2686,7 +2691,7 @@
       <c r="I25">
         <v>160.47</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="12">
         <v>13.44</v>
       </c>
       <c r="K25" s="7">
@@ -2701,7 +2706,7 @@
       <c r="N25" s="7">
         <v>167.47</v>
       </c>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
@@ -2731,7 +2736,7 @@
       <c r="I26">
         <v>89.71</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="12">
         <v>34.67</v>
       </c>
       <c r="K26">
@@ -2746,7 +2751,7 @@
       <c r="N26" s="7">
         <v>114.42</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -2776,7 +2781,7 @@
       <c r="I27">
         <v>219.83</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="12">
         <v>0</v>
       </c>
       <c r="K27">
@@ -2791,7 +2796,7 @@
       <c r="N27" s="7">
         <v>260.26</v>
       </c>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
@@ -2821,7 +2826,7 @@
       <c r="I28">
         <v>71.56</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="12">
         <v>36.39</v>
       </c>
       <c r="K28">
@@ -2836,7 +2841,7 @@
       <c r="N28" s="7">
         <v>148.22999999999999</v>
       </c>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -2866,7 +2871,7 @@
       <c r="I29">
         <v>154.22999999999999</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="12">
         <v>16.09</v>
       </c>
       <c r="K29">
@@ -2881,7 +2886,7 @@
       <c r="N29" s="7">
         <v>328.71</v>
       </c>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
@@ -2911,7 +2916,7 @@
       <c r="I30">
         <v>197.69</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="12">
         <v>26.45</v>
       </c>
       <c r="K30" s="7">
@@ -2926,7 +2931,7 @@
       <c r="N30" s="7">
         <v>269.58</v>
       </c>
-      <c r="Q30" s="9"/>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -2956,7 +2961,7 @@
       <c r="I31">
         <v>152.5</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="12">
         <v>0</v>
       </c>
       <c r="K31">
@@ -2971,7 +2976,7 @@
       <c r="N31" s="7">
         <v>259.56</v>
       </c>
-      <c r="Q31" s="9"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3001,7 +3006,7 @@
       <c r="I32">
         <v>160.32</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="12">
         <v>4.8899999999999997</v>
       </c>
       <c r="K32">
@@ -3016,7 +3021,7 @@
       <c r="N32" s="7">
         <v>171.35</v>
       </c>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -3046,7 +3051,7 @@
       <c r="I33" s="7">
         <v>185.37</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="12">
         <v>0</v>
       </c>
       <c r="K33">
@@ -3061,7 +3066,7 @@
       <c r="N33" s="7">
         <v>242.45</v>
       </c>
-      <c r="Q33" s="9"/>
+      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -3091,7 +3096,7 @@
       <c r="I34">
         <v>296.02</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="12">
         <v>0</v>
       </c>
       <c r="K34" s="7">
@@ -3106,7 +3111,7 @@
       <c r="N34">
         <v>342.65</v>
       </c>
-      <c r="Q34" s="9"/>
+      <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -3136,7 +3141,7 @@
       <c r="I35">
         <v>119.05</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="12">
         <v>11.54</v>
       </c>
       <c r="K35">
@@ -3151,7 +3156,7 @@
       <c r="N35" s="7">
         <v>183.22</v>
       </c>
-      <c r="Q35" s="9"/>
+      <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -3181,7 +3186,7 @@
       <c r="I36" s="7">
         <v>194.11</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="12">
         <v>0</v>
       </c>
       <c r="K36">
@@ -3196,7 +3201,7 @@
       <c r="N36" s="7">
         <v>277</v>
       </c>
-      <c r="Q36" s="9"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -3226,7 +3231,7 @@
       <c r="I37">
         <v>113.73</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="12">
         <v>10.220000000000001</v>
       </c>
       <c r="K37">
@@ -3241,7 +3246,7 @@
       <c r="N37" s="7">
         <v>148.88999999999999</v>
       </c>
-      <c r="Q37" s="9"/>
+      <c r="Q37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
